--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2642.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2642.xlsx
@@ -354,7 +354,7 @@
         <v>1.482040990501266</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.595668186407936</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2642.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2642.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8145723500554564</v>
+        <v>1.183899760246277</v>
       </c>
       <c r="B1">
-        <v>1.482040990501266</v>
+        <v>2.174247741699219</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.413800954818726</v>
       </c>
       <c r="D1">
-        <v>1.595668186407936</v>
+        <v>1.871991157531738</v>
       </c>
       <c r="E1">
-        <v>0.8652251670138318</v>
+        <v>1.013299226760864</v>
       </c>
     </row>
   </sheetData>
